--- a/docs/schedule.xlsx
+++ b/docs/schedule.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\PythonProjects\autozoomer\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444A3E26-6942-43A7-AC24-4C74F6FE76B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,57 +25,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">Class Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link or Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password(Blank if no)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thursday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Link or Code</t>
+  </si>
+  <si>
+    <t>Password(Blank if no)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>No App Link</t>
+  </si>
+  <si>
+    <t>Open application Link</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>https://oregonstate.zoom.us/j/95802901043?pwd=U2NxZzVRY0VYay8rRjRyQkJGNWxKZz09&amp;uname=James+Wilcock#success</t>
+  </si>
+  <si>
+    <t>WR 327</t>
+  </si>
+  <si>
+    <t>https://oregonstate.zoom.us/j/94114941355?pwd=VFZpUjBGNWoyT0tCR0FqSkR6WmpzQT09&amp;uname=James+Wilcock#success</t>
+  </si>
+  <si>
+    <t>ENGR 202</t>
+  </si>
+  <si>
+    <t>https://oregonstate.zoom.us/j/91672454319?pwd=RGJQcjNNWmtPcTEvMjN1WEw2QzB0UT09</t>
+  </si>
+  <si>
+    <t>ED 216</t>
+  </si>
+  <si>
+    <t>https://oregonstate.zoom.us/j/93753891197?pwd=K1hUVi96UTdhR0xGMWdGbjdKdTY4dz09</t>
+  </si>
+  <si>
+    <t>AG 301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -79,22 +116,15 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -109,7 +139,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -117,454 +147,779 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:M107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.52"/>
+    <col min="2" max="2" width="112" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="14" max="14" width="87" customWidth="1"/>
+    <col min="15" max="15" width="106.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.49791666666666662</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4145833333333333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.6645833333333333</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" location="success" xr:uid="{8CA08CBE-52E8-459E-A499-946FD75FF64F}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="https://oregonstate.zoom.us/j/91672454319?pwd=RGJQcjNNWmtPcTEvMjN1WEw2QzB0UT09" xr:uid="{16D8D6D1-17D2-4267-A419-E685D59F51A0}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{0130BD92-3F17-4D35-9A22-40E930AF2BB1}"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/docs/schedule.xlsx
+++ b/docs/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Documents\PythonProjects\autozoomer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444A3E26-6942-43A7-AC24-4C74F6FE76B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905A39E7-C035-4F75-9B7C-4312E9223B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Class Name</t>
   </si>
@@ -70,33 +70,6 @@
   </si>
   <si>
     <t>Open application Link</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>https://oregonstate.zoom.us/j/95802901043?pwd=U2NxZzVRY0VYay8rRjRyQkJGNWxKZz09&amp;uname=James+Wilcock#success</t>
-  </si>
-  <si>
-    <t>WR 327</t>
-  </si>
-  <si>
-    <t>https://oregonstate.zoom.us/j/94114941355?pwd=VFZpUjBGNWoyT0tCR0FqSkR6WmpzQT09&amp;uname=James+Wilcock#success</t>
-  </si>
-  <si>
-    <t>ENGR 202</t>
-  </si>
-  <si>
-    <t>https://oregonstate.zoom.us/j/91672454319?pwd=RGJQcjNNWmtPcTEvMjN1WEw2QzB0UT09</t>
-  </si>
-  <si>
-    <t>ED 216</t>
-  </si>
-  <si>
-    <t>https://oregonstate.zoom.us/j/93753891197?pwd=K1hUVi96UTdhR0xGMWdGbjdKdTY4dz09</t>
-  </si>
-  <si>
-    <t>AG 301</t>
   </si>
 </sst>
 </file>
@@ -474,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -534,73 +507,21 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.49791666666666662</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.37291666666666662</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.6645833333333333</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -912,13 +833,8 @@
       <c r="D107" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="success" xr:uid="{8CA08CBE-52E8-459E-A499-946FD75FF64F}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="https://oregonstate.zoom.us/j/91672454319?pwd=RGJQcjNNWmtPcTEvMjN1WEw2QzB0UT09" xr:uid="{16D8D6D1-17D2-4267-A419-E685D59F51A0}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{0130BD92-3F17-4D35-9A22-40E930AF2BB1}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/docs/schedule.xlsx
+++ b/docs/schedule.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Class Name</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No App Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open application Link</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -99,6 +105,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,7 +131,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,6 +155,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -159,19 +176,80 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -180,20 +258,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="106.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -232,6 +311,12 @@
       </c>
       <c r="M1" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -240,7 +325,7 @@
       <c r="L2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2"/>
+      <c r="B3" s="4"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -248,316 +333,316 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2"/>
+      <c r="B5" s="4"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2"/>
+      <c r="B6" s="4"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="1"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D107" s="1"/>
     </row>
   </sheetData>
